--- a/CookieChecker/IE-CookiesAccept.xlsx
+++ b/CookieChecker/IE-CookiesAccept.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="45">
   <si>
     <t>Domain</t>
   </si>
@@ -35,25 +35,25 @@
     <t>http://www.nbg.gr</t>
   </si>
   <si>
+    <t>NBGPUBLICConsent</t>
+  </si>
+  <si>
     <t>WSS_FullScreenMode</t>
   </si>
   <si>
+    <t>_fbp</t>
+  </si>
+  <si>
+    <t>_ga</t>
+  </si>
+  <si>
+    <t>_gid</t>
+  </si>
+  <si>
     <t>https://www.nbg.gr/go4more/</t>
   </si>
   <si>
-    <t>NBGPUBLICConsent</t>
-  </si>
-  <si>
-    <t>_fbp</t>
-  </si>
-  <si>
-    <t>_ga</t>
-  </si>
-  <si>
     <t>_gat</t>
-  </si>
-  <si>
-    <t>_gid</t>
   </si>
   <si>
     <t>https://www.nbg.gr/el/nbgseeds/competition/</t>
@@ -478,9 +478,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -495,33 +500,45 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -532,16 +549,16 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -552,16 +569,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -572,16 +589,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -592,19 +609,19 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -615,16 +632,16 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -638,13 +655,13 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -655,16 +672,16 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -675,16 +692,16 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -695,16 +712,16 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -712,7 +729,19 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -723,16 +752,16 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -740,19 +769,7 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -763,16 +780,16 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -783,16 +800,16 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -803,16 +820,16 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -874,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -917,19 +934,10 @@
         <v>40</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">

--- a/CookieChecker/IE-CookiesAccept.xlsx
+++ b/CookieChecker/IE-CookiesAccept.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
